--- a/Contreras Díaz Irma Ivette 20212.xlsx
+++ b/Contreras Díaz Irma Ivette 20212.xlsx
@@ -5554,6 +5554,9 @@
       <c r="J11" t="s">
         <v>434</v>
       </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
@@ -8234,6 +8237,9 @@
       <c r="J13" t="s">
         <v>947</v>
       </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14">

--- a/Contreras Díaz Irma Ivette 20212.xlsx
+++ b/Contreras Díaz Irma Ivette 20212.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="1124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="1130">
   <si>
     <t>NC</t>
   </si>
@@ -2957,6 +2957,9 @@
     <t>GAEL</t>
   </si>
   <si>
+    <t>NATALIE</t>
+  </si>
+  <si>
     <t>CRISTIAN FERMIN</t>
   </si>
   <si>
@@ -3032,6 +3035,9 @@
     <t>gg7760448@gmail.com</t>
   </si>
   <si>
+    <t>natigap48@gmail.com</t>
+  </si>
+  <si>
     <t>joseigmo90@hotmail.com</t>
   </si>
   <si>
@@ -3104,6 +3110,9 @@
     <t>2721917796</t>
   </si>
   <si>
+    <t>2722018659</t>
+  </si>
+  <si>
     <t>2721092960</t>
   </si>
   <si>
@@ -3173,6 +3182,9 @@
     <t>2722605467</t>
   </si>
   <si>
+    <t>2721443309</t>
+  </si>
+  <si>
     <t>2721710203</t>
   </si>
   <si>
@@ -3221,6 +3233,9 @@
     <t>MARÍA DE JESÚS GONZÁLEZ TAPÍA</t>
   </si>
   <si>
+    <t>KARINA GUADALUPE PEREZ SAN JUAN</t>
+  </si>
+  <si>
     <t>ANDRES GARCIA MONTIEL</t>
   </si>
   <si>
@@ -3354,6 +3369,9 @@
   </si>
   <si>
     <t>2722337781</t>
+  </si>
+  <si>
+    <t>2721349831</t>
   </si>
   <si>
     <t>2721428630</t>
@@ -8475,7 +8493,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8539,19 +8557,19 @@
         <v>849</v>
       </c>
       <c r="E2" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="F2" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="G2" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="H2" t="s">
-        <v>1058</v>
+        <v>1062</v>
       </c>
       <c r="J2" t="s">
-        <v>1105</v>
+        <v>1110</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -8571,19 +8589,19 @@
         <v>973</v>
       </c>
       <c r="E3" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="F3" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="H3" t="s">
-        <v>1059</v>
+        <v>1063</v>
       </c>
       <c r="I3" t="s">
-        <v>1085</v>
+        <v>1090</v>
       </c>
       <c r="J3" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -8603,22 +8621,22 @@
         <v>974</v>
       </c>
       <c r="E4" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="F4" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="G4" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="H4" t="s">
-        <v>1060</v>
+        <v>1064</v>
       </c>
       <c r="I4" t="s">
-        <v>1086</v>
+        <v>1091</v>
       </c>
       <c r="J4" t="s">
-        <v>1106</v>
+        <v>1111</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -8638,19 +8656,19 @@
         <v>639</v>
       </c>
       <c r="E5" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="F5" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="H5" t="s">
-        <v>1061</v>
+        <v>1065</v>
       </c>
       <c r="I5" t="s">
-        <v>1087</v>
+        <v>1092</v>
       </c>
       <c r="J5" t="s">
-        <v>1107</v>
+        <v>1112</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -8670,22 +8688,22 @@
         <v>975</v>
       </c>
       <c r="E6" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="F6" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="G6" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="H6" t="s">
-        <v>1062</v>
+        <v>1066</v>
       </c>
       <c r="I6" t="s">
-        <v>1088</v>
+        <v>1093</v>
       </c>
       <c r="J6" t="s">
-        <v>1108</v>
+        <v>1113</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -8705,19 +8723,19 @@
         <v>976</v>
       </c>
       <c r="E7" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="F7" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="H7" t="s">
-        <v>1063</v>
+        <v>1067</v>
       </c>
       <c r="I7" t="s">
-        <v>1089</v>
+        <v>1094</v>
       </c>
       <c r="J7" t="s">
-        <v>1109</v>
+        <v>1114</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -8737,16 +8755,16 @@
         <v>977</v>
       </c>
       <c r="E8" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="G8" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="H8" t="s">
-        <v>1064</v>
+        <v>1068</v>
       </c>
       <c r="J8" t="s">
-        <v>1110</v>
+        <v>1115</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -8766,19 +8784,19 @@
         <v>973</v>
       </c>
       <c r="E9" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="F9" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="G9" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="H9" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="J9" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -8798,19 +8816,19 @@
         <v>978</v>
       </c>
       <c r="E10" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="F10" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="H10" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="I10" t="s">
-        <v>1090</v>
+        <v>1095</v>
       </c>
       <c r="J10" t="s">
-        <v>1111</v>
+        <v>1116</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -8818,34 +8836,31 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>21330051920121</v>
+        <v>21330051920120</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D11" t="s">
         <v>979</v>
       </c>
       <c r="E11" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="F11" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="G11" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="H11" t="s">
-        <v>1067</v>
-      </c>
-      <c r="I11" t="s">
-        <v>1004</v>
+        <v>1071</v>
       </c>
       <c r="J11" t="s">
-        <v>1112</v>
+        <v>1117</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -8853,31 +8868,34 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>21330051920391</v>
+        <v>21330051920121</v>
       </c>
       <c r="B12" t="s">
-        <v>319</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>966</v>
+        <v>578</v>
       </c>
       <c r="D12" t="s">
         <v>980</v>
       </c>
       <c r="E12" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="F12" t="s">
-        <v>1029</v>
+        <v>1031</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1055</v>
       </c>
       <c r="H12" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="I12" t="s">
-        <v>1091</v>
+        <v>1006</v>
       </c>
       <c r="J12" t="s">
-        <v>1113</v>
+        <v>1118</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -8885,34 +8903,31 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>21330051920122</v>
+        <v>21330051920391</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>319</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>966</v>
       </c>
       <c r="D13" t="s">
         <v>981</v>
       </c>
       <c r="E13" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="F13" t="s">
-        <v>1030</v>
-      </c>
-      <c r="G13" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="H13" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="I13" t="s">
-        <v>1092</v>
+        <v>1096</v>
       </c>
       <c r="J13" t="s">
-        <v>1030</v>
+        <v>1119</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -8920,34 +8935,34 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>21330051920123</v>
+        <v>21330051920122</v>
       </c>
       <c r="B14" t="s">
-        <v>957</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>967</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
         <v>982</v>
       </c>
       <c r="E14" t="s">
-        <v>531</v>
+        <v>1008</v>
       </c>
       <c r="F14" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="G14" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="H14" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="I14" t="s">
-        <v>1093</v>
+        <v>1097</v>
       </c>
       <c r="J14" t="s">
-        <v>1114</v>
+        <v>1033</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -8955,34 +8970,34 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>21330051920124</v>
+        <v>21330051920123</v>
       </c>
       <c r="B15" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C15" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D15" t="s">
         <v>983</v>
       </c>
       <c r="E15" t="s">
-        <v>1007</v>
+        <v>531</v>
       </c>
       <c r="F15" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="G15" t="s">
-        <v>1052</v>
+        <v>1034</v>
       </c>
       <c r="H15" t="s">
-        <v>1071</v>
+        <v>1075</v>
       </c>
       <c r="I15" t="s">
-        <v>1094</v>
+        <v>1098</v>
       </c>
       <c r="J15" t="s">
-        <v>1115</v>
+        <v>1120</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -8990,34 +9005,34 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>21330051920125</v>
+        <v>21330051920124</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>958</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>968</v>
       </c>
       <c r="D16" t="s">
         <v>984</v>
       </c>
       <c r="E16" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="F16" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="G16" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="H16" t="s">
-        <v>1072</v>
+        <v>1076</v>
       </c>
       <c r="I16" t="s">
-        <v>1095</v>
+        <v>1099</v>
       </c>
       <c r="J16" t="s">
-        <v>1033</v>
+        <v>1121</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -9025,34 +9040,34 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>21330051920126</v>
+        <v>21330051920125</v>
       </c>
       <c r="B17" t="s">
-        <v>959</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
         <v>985</v>
       </c>
       <c r="E17" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="F17" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="G17" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="H17" t="s">
-        <v>1073</v>
+        <v>1077</v>
       </c>
       <c r="I17" t="s">
-        <v>1009</v>
+        <v>1100</v>
       </c>
       <c r="J17" t="s">
-        <v>1054</v>
+        <v>1036</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -9060,267 +9075,270 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>21330051920127</v>
+        <v>21330051920126</v>
       </c>
       <c r="B18" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C18" t="s">
-        <v>596</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
         <v>986</v>
       </c>
       <c r="E18" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="F18" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="G18" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="H18" t="s">
-        <v>1074</v>
+        <v>1078</v>
       </c>
       <c r="I18" t="s">
-        <v>1096</v>
+        <v>1011</v>
       </c>
       <c r="J18" t="s">
-        <v>1116</v>
+        <v>1058</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>20330051920275</v>
+        <v>21330051920127</v>
       </c>
       <c r="B19" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>596</v>
       </c>
       <c r="D19" t="s">
         <v>987</v>
       </c>
       <c r="E19" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="F19" t="s">
-        <v>1036</v>
+        <v>1038</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1059</v>
       </c>
       <c r="H19" t="s">
-        <v>1075</v>
+        <v>1079</v>
       </c>
       <c r="I19" t="s">
-        <v>1011</v>
+        <v>1101</v>
       </c>
       <c r="J19" t="s">
-        <v>1036</v>
+        <v>1122</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>21330051920128</v>
+        <v>20330051920275</v>
       </c>
       <c r="B20" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C20" t="s">
-        <v>597</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
         <v>988</v>
       </c>
       <c r="E20" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="F20" t="s">
-        <v>1037</v>
-      </c>
-      <c r="G20" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="H20" t="s">
-        <v>1076</v>
+        <v>1080</v>
       </c>
       <c r="I20" t="s">
-        <v>1097</v>
+        <v>1013</v>
       </c>
       <c r="J20" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>21330051920129</v>
+        <v>21330051920128</v>
+      </c>
+      <c r="B21" t="s">
+        <v>962</v>
       </c>
       <c r="C21" t="s">
-        <v>969</v>
+        <v>597</v>
       </c>
       <c r="D21" t="s">
         <v>989</v>
       </c>
       <c r="E21" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="F21" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="G21" t="s">
-        <v>1038</v>
+        <v>1060</v>
       </c>
       <c r="H21" t="s">
-        <v>1077</v>
+        <v>1081</v>
       </c>
       <c r="I21" t="s">
-        <v>1098</v>
+        <v>1102</v>
       </c>
       <c r="J21" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <v>21330051920130</v>
-      </c>
-      <c r="B22" t="s">
-        <v>963</v>
+        <v>21330051920129</v>
       </c>
       <c r="C22" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D22" t="s">
         <v>990</v>
       </c>
       <c r="E22" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="F22" t="s">
-        <v>1039</v>
+        <v>1041</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1041</v>
       </c>
       <c r="H22" t="s">
-        <v>1078</v>
+        <v>1082</v>
       </c>
       <c r="I22" t="s">
-        <v>1014</v>
+        <v>1103</v>
       </c>
       <c r="J22" t="s">
-        <v>1117</v>
+        <v>1041</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>21330051920131</v>
+        <v>21330051920130</v>
       </c>
       <c r="B23" t="s">
-        <v>324</v>
+        <v>963</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="D23" t="s">
-        <v>620</v>
+        <v>991</v>
       </c>
       <c r="E23" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="F23" t="s">
-        <v>1040</v>
-      </c>
-      <c r="G23" t="s">
-        <v>1057</v>
+        <v>1042</v>
       </c>
       <c r="H23" t="s">
-        <v>1079</v>
+        <v>1083</v>
       </c>
       <c r="I23" t="s">
-        <v>1099</v>
+        <v>1016</v>
       </c>
       <c r="J23" t="s">
-        <v>1118</v>
+        <v>1123</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <v>18330051920377</v>
+        <v>21330051920131</v>
       </c>
       <c r="B24" t="s">
-        <v>833</v>
+        <v>324</v>
       </c>
       <c r="C24" t="s">
-        <v>971</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>102</v>
+        <v>620</v>
       </c>
       <c r="E24" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="F24" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="G24" t="s">
-        <v>1041</v>
+        <v>1061</v>
       </c>
       <c r="H24" t="s">
-        <v>1080</v>
+        <v>1084</v>
       </c>
       <c r="I24" t="s">
-        <v>1100</v>
+        <v>1104</v>
       </c>
       <c r="J24" t="s">
-        <v>1119</v>
+        <v>1124</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
-        <v>21330051920132</v>
+        <v>18330051920377</v>
       </c>
       <c r="B25" t="s">
-        <v>594</v>
+        <v>833</v>
       </c>
       <c r="C25" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D25" t="s">
-        <v>991</v>
+        <v>102</v>
       </c>
       <c r="E25" t="s">
-        <v>146</v>
+        <v>1018</v>
       </c>
       <c r="F25" t="s">
-        <v>1042</v>
+        <v>1044</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1044</v>
       </c>
       <c r="H25" t="s">
-        <v>1081</v>
+        <v>1085</v>
       </c>
       <c r="I25" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="J25" t="s">
-        <v>1120</v>
+        <v>1125</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -9328,100 +9346,132 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26">
-        <v>20330051920152</v>
+        <v>21330051920132</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>594</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>972</v>
       </c>
       <c r="D26" t="s">
         <v>992</v>
       </c>
       <c r="E26" t="s">
-        <v>1017</v>
+        <v>146</v>
       </c>
       <c r="F26" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="H26" t="s">
-        <v>1082</v>
+        <v>1086</v>
       </c>
       <c r="I26" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="J26" t="s">
-        <v>1121</v>
+        <v>1126</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27">
-        <v>21330051920133</v>
+        <v>20330051920152</v>
       </c>
       <c r="B27" t="s">
-        <v>599</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>961</v>
+        <v>17</v>
       </c>
       <c r="D27" t="s">
         <v>993</v>
       </c>
       <c r="E27" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="F27" t="s">
-        <v>1044</v>
-      </c>
-      <c r="G27" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="H27" t="s">
-        <v>1083</v>
+        <v>1087</v>
       </c>
       <c r="I27" t="s">
-        <v>1103</v>
+        <v>1107</v>
       </c>
       <c r="J27" t="s">
-        <v>1122</v>
+        <v>1127</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28">
-        <v>21330051920134</v>
+        <v>21330051920133</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>599</v>
       </c>
       <c r="C28" t="s">
-        <v>346</v>
+        <v>961</v>
       </c>
       <c r="D28" t="s">
         <v>994</v>
       </c>
       <c r="E28" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="F28" t="s">
-        <v>1045</v>
+        <v>1047</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1047</v>
       </c>
       <c r="H28" t="s">
-        <v>1084</v>
+        <v>1088</v>
       </c>
       <c r="I28" t="s">
-        <v>1104</v>
+        <v>1108</v>
       </c>
       <c r="J28" t="s">
-        <v>1123</v>
+        <v>1128</v>
       </c>
       <c r="K28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29">
+        <v>21330051920134</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" t="s">
+        <v>346</v>
+      </c>
+      <c r="D29" t="s">
+        <v>995</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1089</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1109</v>
+      </c>
+      <c r="J29" t="s">
+        <v>1129</v>
+      </c>
+      <c r="K29">
         <v>1</v>
       </c>
     </row>

--- a/Contreras Díaz Irma Ivette 20212.xlsx
+++ b/Contreras Díaz Irma Ivette 20212.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="1130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="1136">
   <si>
     <t>NC</t>
   </si>
@@ -1883,6 +1883,9 @@
     <t>FATIMA</t>
   </si>
   <si>
+    <t>JOSE ISAAC</t>
+  </si>
+  <si>
     <t>FATIMA MARILYN</t>
   </si>
   <si>
@@ -1997,6 +2000,9 @@
     <t>fm516197@gmail.com</t>
   </si>
   <si>
+    <t>josemart041020@gmail.com</t>
+  </si>
+  <si>
     <t>fatrodri2@gmail.com</t>
   </si>
   <si>
@@ -2108,6 +2114,9 @@
     <t>2721951437</t>
   </si>
   <si>
+    <t>2721342134</t>
+  </si>
+  <si>
     <t>2721875803</t>
   </si>
   <si>
@@ -2285,6 +2294,9 @@
     <t>SARA RIVERA MARTINEZ</t>
   </si>
   <si>
+    <t>DANIEL MARTÍNEZ SÁNCHEZ</t>
+  </si>
+  <si>
     <t>LAURA ALONDRA RODRIGUEZ IGNACIO</t>
   </si>
   <si>
@@ -2387,6 +2399,9 @@
     <t>reginadejesussanchez@gmail.com</t>
   </si>
   <si>
+    <t>martisandaniel@gmail.com</t>
+  </si>
+  <si>
     <t>rodriguezlauraalondra390@gmail.com</t>
   </si>
   <si>
@@ -2454,6 +2469,9 @@
   </si>
   <si>
     <t>2722641275</t>
+  </si>
+  <si>
+    <t>9921059452</t>
   </si>
   <si>
     <t>2722260619</t>
@@ -6469,7 +6487,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6533,22 +6551,22 @@
         <v>606</v>
       </c>
       <c r="E2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F2" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="G2" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="H2" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="I2" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="J2" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -6568,19 +6586,19 @@
         <v>607</v>
       </c>
       <c r="E3" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F3" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="H3" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="I3" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="J3" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -6600,19 +6618,19 @@
         <v>379</v>
       </c>
       <c r="E4" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F4" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="H4" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="I4" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="J4" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -6632,16 +6650,16 @@
         <v>608</v>
       </c>
       <c r="E5" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="G5" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="H5" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="J5" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -6661,19 +6679,19 @@
         <v>609</v>
       </c>
       <c r="E6" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F6" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="H6" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="I6" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="J6" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -6693,19 +6711,19 @@
         <v>610</v>
       </c>
       <c r="E7" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F7" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="H7" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="I7" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="J7" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -6725,22 +6743,22 @@
         <v>611</v>
       </c>
       <c r="E8" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F8" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="G8" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="H8" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="I8" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="J8" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -6760,19 +6778,19 @@
         <v>612</v>
       </c>
       <c r="E9" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F9" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="H9" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="I9" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="J9" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -6792,22 +6810,22 @@
         <v>112</v>
       </c>
       <c r="E10" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F10" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="G10" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="H10" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="I10" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="J10" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -6827,19 +6845,19 @@
         <v>613</v>
       </c>
       <c r="E11" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F11" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="H11" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="I11" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="J11" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -6859,22 +6877,22 @@
         <v>614</v>
       </c>
       <c r="E12" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F12" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="G12" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="H12" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="I12" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="J12" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -6894,22 +6912,22 @@
         <v>112</v>
       </c>
       <c r="E13" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F13" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="G13" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="H13" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="I13" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="J13" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -6929,22 +6947,22 @@
         <v>615</v>
       </c>
       <c r="E14" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F14" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="G14" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="H14" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="I14" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="J14" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -6964,22 +6982,22 @@
         <v>616</v>
       </c>
       <c r="E15" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F15" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="G15" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="H15" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="I15" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="J15" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -6999,22 +7017,22 @@
         <v>617</v>
       </c>
       <c r="E16" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F16" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="G16" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="H16" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="I16" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="J16" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -7034,16 +7052,16 @@
         <v>618</v>
       </c>
       <c r="E17" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="G17" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="H17" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="J17" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -7063,19 +7081,19 @@
         <v>619</v>
       </c>
       <c r="E18" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F18" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="G18" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="H18" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="J18" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -7095,19 +7113,19 @@
         <v>620</v>
       </c>
       <c r="E19" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F19" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="G19" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="H19" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="J19" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -7115,10 +7133,10 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>21330051920089</v>
+        <v>20330051920302</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
         <v>36</v>
@@ -7127,57 +7145,54 @@
         <v>621</v>
       </c>
       <c r="E20" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F20" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="G20" t="s">
-        <v>725</v>
+        <v>698</v>
       </c>
       <c r="H20" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="I20" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="J20" t="s">
-        <v>812</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
+        <v>817</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>21330051920092</v>
+        <v>21330051920089</v>
       </c>
       <c r="B21" t="s">
-        <v>575</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>595</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
         <v>622</v>
       </c>
       <c r="E21" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F21" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="G21" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="H21" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="I21" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="J21" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -7185,229 +7200,229 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <v>21330051920093</v>
+        <v>21330051920092</v>
       </c>
       <c r="B22" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>595</v>
       </c>
       <c r="D22" t="s">
         <v>623</v>
       </c>
       <c r="E22" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F22" t="s">
-        <v>698</v>
+        <v>700</v>
+      </c>
+      <c r="G22" t="s">
+        <v>729</v>
       </c>
       <c r="H22" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="I22" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="J22" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>21330051920094</v>
+        <v>21330051920093</v>
       </c>
       <c r="B23" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C23" t="s">
-        <v>596</v>
+        <v>71</v>
       </c>
       <c r="D23" t="s">
         <v>624</v>
       </c>
       <c r="E23" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="F23" t="s">
-        <v>699</v>
-      </c>
-      <c r="G23" t="s">
-        <v>727</v>
+        <v>701</v>
       </c>
       <c r="H23" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="I23" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="J23" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <v>21330051920096</v>
+        <v>21330051920094</v>
       </c>
       <c r="B24" t="s">
         <v>577</v>
       </c>
       <c r="C24" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D24" t="s">
         <v>625</v>
       </c>
       <c r="E24" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F24" t="s">
-        <v>700</v>
+        <v>702</v>
+      </c>
+      <c r="G24" t="s">
+        <v>730</v>
       </c>
       <c r="H24" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="I24" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="J24" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
-        <v>21330051920097</v>
+        <v>21330051920096</v>
       </c>
       <c r="B25" t="s">
-        <v>323</v>
+        <v>577</v>
       </c>
       <c r="C25" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D25" t="s">
         <v>626</v>
       </c>
       <c r="E25" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F25" t="s">
-        <v>701</v>
-      </c>
-      <c r="G25" t="s">
-        <v>728</v>
+        <v>703</v>
       </c>
       <c r="H25" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="I25" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="J25" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26">
-        <v>18330051920296</v>
+        <v>21330051920097</v>
       </c>
       <c r="B26" t="s">
-        <v>577</v>
+        <v>323</v>
       </c>
       <c r="C26" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D26" t="s">
         <v>627</v>
       </c>
       <c r="E26" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F26" t="s">
-        <v>702</v>
+        <v>704</v>
+      </c>
+      <c r="G26" t="s">
+        <v>731</v>
       </c>
       <c r="H26" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="I26" t="s">
-        <v>665</v>
+        <v>799</v>
       </c>
       <c r="J26" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27">
-        <v>21330051920098</v>
+        <v>18330051920296</v>
       </c>
       <c r="B27" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>599</v>
       </c>
       <c r="D27" t="s">
         <v>628</v>
       </c>
       <c r="E27" t="s">
-        <v>666</v>
-      </c>
-      <c r="G27" t="s">
-        <v>729</v>
+        <v>667</v>
+      </c>
+      <c r="F27" t="s">
+        <v>705</v>
       </c>
       <c r="H27" t="s">
-        <v>762</v>
+        <v>765</v>
+      </c>
+      <c r="I27" t="s">
+        <v>667</v>
       </c>
       <c r="J27" t="s">
-        <v>729</v>
+        <v>824</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28">
-        <v>21330051920099</v>
+        <v>21330051920098</v>
       </c>
       <c r="B28" t="s">
         <v>578</v>
       </c>
       <c r="C28" t="s">
-        <v>577</v>
+        <v>28</v>
       </c>
       <c r="D28" t="s">
         <v>629</v>
       </c>
       <c r="E28" t="s">
-        <v>667</v>
-      </c>
-      <c r="F28" t="s">
-        <v>703</v>
+        <v>668</v>
       </c>
       <c r="G28" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="H28" t="s">
-        <v>763</v>
-      </c>
-      <c r="I28" t="s">
-        <v>795</v>
+        <v>766</v>
       </c>
       <c r="J28" t="s">
-        <v>819</v>
+        <v>732</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -7415,127 +7430,130 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29">
-        <v>21330051920100</v>
+        <v>21330051920099</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>578</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>577</v>
       </c>
       <c r="D29" t="s">
         <v>630</v>
       </c>
       <c r="E29" t="s">
-        <v>668</v>
+        <v>669</v>
+      </c>
+      <c r="F29" t="s">
+        <v>706</v>
       </c>
       <c r="G29" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="H29" t="s">
-        <v>764</v>
+        <v>767</v>
+      </c>
+      <c r="I29" t="s">
+        <v>800</v>
       </c>
       <c r="J29" t="s">
-        <v>731</v>
+        <v>825</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30">
-        <v>21330051920101</v>
+        <v>21330051920100</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>578</v>
+        <v>51</v>
       </c>
       <c r="D30" t="s">
         <v>631</v>
       </c>
       <c r="E30" t="s">
-        <v>669</v>
-      </c>
-      <c r="F30" t="s">
-        <v>704</v>
+        <v>670</v>
       </c>
       <c r="G30" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="H30" t="s">
-        <v>765</v>
-      </c>
-      <c r="I30" t="s">
-        <v>796</v>
+        <v>768</v>
       </c>
       <c r="J30" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31">
-        <v>21330051920383</v>
+        <v>21330051920101</v>
       </c>
       <c r="B31" t="s">
-        <v>579</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>578</v>
       </c>
       <c r="D31" t="s">
         <v>632</v>
       </c>
       <c r="E31" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F31" t="s">
-        <v>705</v>
+        <v>707</v>
+      </c>
+      <c r="G31" t="s">
+        <v>735</v>
       </c>
       <c r="H31" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="I31" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="J31" t="s">
-        <v>820</v>
+        <v>735</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32">
-        <v>21330051920102</v>
+        <v>21330051920383</v>
       </c>
       <c r="B32" t="s">
+        <v>579</v>
+      </c>
+      <c r="C32" t="s">
         <v>52</v>
-      </c>
-      <c r="C32" t="s">
-        <v>342</v>
       </c>
       <c r="D32" t="s">
         <v>633</v>
       </c>
       <c r="E32" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F32" t="s">
-        <v>706</v>
-      </c>
-      <c r="G32" t="s">
-        <v>733</v>
+        <v>708</v>
       </c>
       <c r="H32" t="s">
-        <v>767</v>
+        <v>770</v>
+      </c>
+      <c r="I32" t="s">
+        <v>802</v>
       </c>
       <c r="J32" t="s">
-        <v>733</v>
+        <v>826</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -7543,34 +7561,31 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33">
-        <v>21330051920103</v>
+        <v>21330051920102</v>
       </c>
       <c r="B33" t="s">
-        <v>580</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>342</v>
       </c>
       <c r="D33" t="s">
         <v>634</v>
       </c>
       <c r="E33" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F33" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="G33" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="H33" t="s">
-        <v>768</v>
-      </c>
-      <c r="I33" t="s">
-        <v>798</v>
+        <v>771</v>
       </c>
       <c r="J33" t="s">
-        <v>707</v>
+        <v>736</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -7578,66 +7593,66 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34">
-        <v>21330051920104</v>
+        <v>21330051920103</v>
       </c>
       <c r="B34" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C34" t="s">
-        <v>600</v>
+        <v>28</v>
       </c>
       <c r="D34" t="s">
         <v>635</v>
       </c>
       <c r="E34" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F34" t="s">
-        <v>708</v>
+        <v>710</v>
+      </c>
+      <c r="G34" t="s">
+        <v>737</v>
       </c>
       <c r="H34" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="I34" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="J34" t="s">
-        <v>821</v>
+        <v>710</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35">
-        <v>21330051920105</v>
+        <v>21330051920104</v>
       </c>
       <c r="B35" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C35" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D35" t="s">
-        <v>311</v>
+        <v>636</v>
       </c>
       <c r="E35" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F35" t="s">
-        <v>709</v>
-      </c>
-      <c r="G35" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="H35" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="I35" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="J35" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -7645,34 +7660,34 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36">
-        <v>21330051920106</v>
+        <v>21330051920105</v>
       </c>
       <c r="B36" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C36" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D36" t="s">
-        <v>636</v>
+        <v>311</v>
       </c>
       <c r="E36" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F36" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="G36" t="s">
-        <v>735</v>
+        <v>712</v>
       </c>
       <c r="H36" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="I36" t="s">
-        <v>675</v>
+        <v>805</v>
       </c>
       <c r="J36" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -7680,95 +7695,98 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37">
-        <v>21330051920107</v>
+        <v>21330051920106</v>
       </c>
       <c r="B37" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C37" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D37" t="s">
         <v>637</v>
       </c>
       <c r="E37" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F37" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="G37" t="s">
-        <v>711</v>
+        <v>738</v>
       </c>
       <c r="H37" t="s">
-        <v>772</v>
+        <v>775</v>
+      </c>
+      <c r="I37" t="s">
+        <v>677</v>
       </c>
       <c r="J37" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38">
-        <v>18330051920309</v>
+        <v>21330051920107</v>
       </c>
       <c r="B38" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C38" t="s">
-        <v>54</v>
+        <v>603</v>
       </c>
       <c r="D38" t="s">
         <v>638</v>
       </c>
       <c r="E38" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F38" t="s">
-        <v>712</v>
+        <v>714</v>
+      </c>
+      <c r="G38" t="s">
+        <v>714</v>
       </c>
       <c r="H38" t="s">
-        <v>773</v>
-      </c>
-      <c r="I38" t="s">
-        <v>677</v>
+        <v>776</v>
       </c>
       <c r="J38" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39">
-        <v>21330051920109</v>
+        <v>18330051920309</v>
       </c>
       <c r="B39" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C39" t="s">
-        <v>604</v>
+        <v>54</v>
       </c>
       <c r="D39" t="s">
         <v>639</v>
       </c>
       <c r="E39" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F39" t="s">
-        <v>713</v>
-      </c>
-      <c r="G39" t="s">
-        <v>736</v>
+        <v>715</v>
       </c>
       <c r="H39" t="s">
-        <v>774</v>
+        <v>777</v>
+      </c>
+      <c r="I39" t="s">
+        <v>679</v>
       </c>
       <c r="J39" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -7776,33 +7794,65 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40">
-        <v>21330051920387</v>
+        <v>21330051920109</v>
       </c>
       <c r="B40" t="s">
-        <v>345</v>
+        <v>586</v>
       </c>
       <c r="C40" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D40" t="s">
         <v>640</v>
       </c>
       <c r="E40" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F40" t="s">
-        <v>714</v>
+        <v>716</v>
+      </c>
+      <c r="G40" t="s">
+        <v>739</v>
       </c>
       <c r="H40" t="s">
-        <v>775</v>
-      </c>
-      <c r="I40" t="s">
-        <v>801</v>
+        <v>778</v>
       </c>
       <c r="J40" t="s">
-        <v>714</v>
+        <v>832</v>
       </c>
       <c r="K40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41">
+        <v>21330051920387</v>
+      </c>
+      <c r="B41" t="s">
+        <v>345</v>
+      </c>
+      <c r="C41" t="s">
+        <v>605</v>
+      </c>
+      <c r="D41" t="s">
+        <v>641</v>
+      </c>
+      <c r="E41" t="s">
+        <v>681</v>
+      </c>
+      <c r="F41" t="s">
+        <v>717</v>
+      </c>
+      <c r="H41" t="s">
+        <v>779</v>
+      </c>
+      <c r="I41" t="s">
+        <v>806</v>
+      </c>
+      <c r="J41" t="s">
+        <v>717</v>
+      </c>
+      <c r="K41">
         <v>1</v>
       </c>
     </row>
@@ -7868,31 +7918,31 @@
         <v>21330051920135</v>
       </c>
       <c r="B2" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="C2" t="s">
         <v>594</v>
       </c>
       <c r="D2" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="E2" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
       <c r="F2" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
       <c r="G2" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="H2" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="I2" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
       <c r="J2" t="s">
-        <v>940</v>
+        <v>946</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -7903,28 +7953,28 @@
         <v>21330051920138</v>
       </c>
       <c r="B3" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="C3" t="s">
         <v>355</v>
       </c>
       <c r="D3" t="s">
-        <v>844</v>
+        <v>850</v>
       </c>
       <c r="E3" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="F3" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="H3" t="s">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="I3" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="J3" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -7938,22 +7988,22 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="D4" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="E4" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
       <c r="G4" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="H4" t="s">
-        <v>908</v>
+        <v>914</v>
       </c>
       <c r="J4" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -7964,31 +8014,31 @@
         <v>21330051920140</v>
       </c>
       <c r="B5" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="E5" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="F5" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
       <c r="G5" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="H5" t="s">
-        <v>909</v>
+        <v>915</v>
       </c>
       <c r="I5" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
       <c r="J5" t="s">
-        <v>941</v>
+        <v>947</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -8002,25 +8052,25 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="D6" t="s">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="E6" t="s">
-        <v>865</v>
+        <v>871</v>
       </c>
       <c r="F6" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="H6" t="s">
-        <v>910</v>
+        <v>916</v>
       </c>
       <c r="I6" t="s">
-        <v>927</v>
+        <v>933</v>
       </c>
       <c r="J6" t="s">
-        <v>942</v>
+        <v>948</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -8037,25 +8087,25 @@
         <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="E7" t="s">
-        <v>866</v>
+        <v>872</v>
       </c>
       <c r="F7" t="s">
-        <v>884</v>
+        <v>890</v>
       </c>
       <c r="G7" t="s">
-        <v>901</v>
+        <v>907</v>
       </c>
       <c r="H7" t="s">
-        <v>911</v>
+        <v>917</v>
       </c>
       <c r="I7" t="s">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="J7" t="s">
-        <v>943</v>
+        <v>949</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -8069,25 +8119,25 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="D8" t="s">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="E8" t="s">
-        <v>867</v>
+        <v>873</v>
       </c>
       <c r="F8" t="s">
-        <v>885</v>
+        <v>891</v>
       </c>
       <c r="H8" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
       <c r="I8" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="J8" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -8101,28 +8151,28 @@
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="D9" t="s">
         <v>98</v>
       </c>
       <c r="E9" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="F9" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="G9" t="s">
-        <v>902</v>
+        <v>908</v>
       </c>
       <c r="H9" t="s">
-        <v>913</v>
+        <v>919</v>
       </c>
       <c r="I9" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
       <c r="J9" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -8133,28 +8183,28 @@
         <v>21330051920381</v>
       </c>
       <c r="B10" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="C10" t="s">
         <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="E10" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="F10" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="G10" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="H10" t="s">
-        <v>914</v>
+        <v>920</v>
       </c>
       <c r="J10" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -8165,28 +8215,28 @@
         <v>21330051920145</v>
       </c>
       <c r="B11" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
       <c r="E11" t="s">
-        <v>870</v>
+        <v>876</v>
       </c>
       <c r="F11" t="s">
-        <v>888</v>
+        <v>894</v>
       </c>
       <c r="H11" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
       <c r="I11" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
       <c r="J11" t="s">
-        <v>945</v>
+        <v>951</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -8203,25 +8253,25 @@
         <v>325</v>
       </c>
       <c r="D12" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
       <c r="E12" t="s">
-        <v>871</v>
+        <v>877</v>
       </c>
       <c r="F12" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="G12" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
       <c r="H12" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="I12" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
       <c r="J12" t="s">
-        <v>946</v>
+        <v>952</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -8232,28 +8282,28 @@
         <v>21330051920395</v>
       </c>
       <c r="B13" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="C13" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="D13" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="E13" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="F13" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="H13" t="s">
-        <v>917</v>
+        <v>923</v>
       </c>
       <c r="I13" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
       <c r="J13" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -8270,22 +8320,22 @@
         <v>319</v>
       </c>
       <c r="D14" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="E14" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="F14" t="s">
-        <v>891</v>
+        <v>897</v>
       </c>
       <c r="H14" t="s">
-        <v>918</v>
+        <v>924</v>
       </c>
       <c r="I14" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
       <c r="J14" t="s">
-        <v>891</v>
+        <v>897</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -8296,28 +8346,28 @@
         <v>21330051920148</v>
       </c>
       <c r="B15" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="C15" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="D15" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="E15" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="F15" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="G15" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
       <c r="H15" t="s">
-        <v>919</v>
+        <v>925</v>
       </c>
       <c r="J15" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -8328,28 +8378,28 @@
         <v>21330051920150</v>
       </c>
       <c r="B16" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="C16" t="s">
         <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="E16" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
       <c r="F16" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
       <c r="H16" t="s">
-        <v>920</v>
+        <v>926</v>
       </c>
       <c r="I16" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
       <c r="J16" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -8366,22 +8416,22 @@
         <v>342</v>
       </c>
       <c r="D17" t="s">
-        <v>857</v>
+        <v>863</v>
       </c>
       <c r="E17" t="s">
-        <v>876</v>
+        <v>882</v>
       </c>
       <c r="F17" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="H17" t="s">
-        <v>921</v>
+        <v>927</v>
       </c>
       <c r="I17" t="s">
-        <v>936</v>
+        <v>942</v>
       </c>
       <c r="J17" t="s">
-        <v>949</v>
+        <v>955</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -8392,28 +8442,28 @@
         <v>21330051920382</v>
       </c>
       <c r="B18" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="E18" t="s">
-        <v>877</v>
+        <v>883</v>
       </c>
       <c r="F18" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
       <c r="H18" t="s">
-        <v>922</v>
+        <v>928</v>
       </c>
       <c r="I18" t="s">
-        <v>937</v>
+        <v>943</v>
       </c>
       <c r="J18" t="s">
-        <v>950</v>
+        <v>956</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -8424,31 +8474,31 @@
         <v>21330051920392</v>
       </c>
       <c r="B19" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="C19" t="s">
         <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>859</v>
+        <v>865</v>
       </c>
       <c r="E19" t="s">
-        <v>878</v>
+        <v>884</v>
       </c>
       <c r="F19" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="G19" t="s">
-        <v>905</v>
+        <v>911</v>
       </c>
       <c r="H19" t="s">
-        <v>923</v>
+        <v>929</v>
       </c>
       <c r="I19" t="s">
-        <v>938</v>
+        <v>944</v>
       </c>
       <c r="J19" t="s">
-        <v>951</v>
+        <v>957</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -8459,28 +8509,28 @@
         <v>18330051920388</v>
       </c>
       <c r="B20" t="s">
-        <v>836</v>
+        <v>842</v>
       </c>
       <c r="C20" t="s">
         <v>578</v>
       </c>
       <c r="D20" t="s">
-        <v>860</v>
+        <v>866</v>
       </c>
       <c r="E20" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
       <c r="F20" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="H20" t="s">
-        <v>924</v>
+        <v>930</v>
       </c>
       <c r="I20" t="s">
-        <v>939</v>
+        <v>945</v>
       </c>
       <c r="J20" t="s">
-        <v>952</v>
+        <v>958</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -8548,28 +8598,28 @@
         <v>21330051920111</v>
       </c>
       <c r="B2" t="s">
-        <v>953</v>
+        <v>959</v>
       </c>
       <c r="C2" t="s">
         <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="E2" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="F2" t="s">
-        <v>1022</v>
+        <v>1028</v>
       </c>
       <c r="G2" t="s">
-        <v>1049</v>
+        <v>1055</v>
       </c>
       <c r="H2" t="s">
-        <v>1062</v>
+        <v>1068</v>
       </c>
       <c r="J2" t="s">
-        <v>1110</v>
+        <v>1116</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -8586,22 +8636,22 @@
         <v>578</v>
       </c>
       <c r="D3" t="s">
-        <v>973</v>
+        <v>979</v>
       </c>
       <c r="E3" t="s">
-        <v>997</v>
+        <v>1003</v>
       </c>
       <c r="F3" t="s">
-        <v>1023</v>
+        <v>1029</v>
       </c>
       <c r="H3" t="s">
-        <v>1063</v>
+        <v>1069</v>
       </c>
       <c r="I3" t="s">
-        <v>1090</v>
+        <v>1096</v>
       </c>
       <c r="J3" t="s">
-        <v>1023</v>
+        <v>1029</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -8612,31 +8662,31 @@
         <v>21330051920113</v>
       </c>
       <c r="B4" t="s">
-        <v>954</v>
+        <v>960</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
       <c r="E4" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="F4" t="s">
-        <v>1024</v>
+        <v>1030</v>
       </c>
       <c r="G4" t="s">
-        <v>1050</v>
+        <v>1056</v>
       </c>
       <c r="H4" t="s">
-        <v>1064</v>
+        <v>1070</v>
       </c>
       <c r="I4" t="s">
-        <v>1091</v>
+        <v>1097</v>
       </c>
       <c r="J4" t="s">
-        <v>1111</v>
+        <v>1117</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -8647,28 +8697,28 @@
         <v>21330051920114</v>
       </c>
       <c r="B5" t="s">
-        <v>955</v>
+        <v>961</v>
       </c>
       <c r="C5" t="s">
         <v>330</v>
       </c>
       <c r="D5" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="E5" t="s">
-        <v>999</v>
+        <v>1005</v>
       </c>
       <c r="F5" t="s">
-        <v>1025</v>
+        <v>1031</v>
       </c>
       <c r="H5" t="s">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="I5" t="s">
-        <v>1092</v>
+        <v>1098</v>
       </c>
       <c r="J5" t="s">
-        <v>1112</v>
+        <v>1118</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -8682,28 +8732,28 @@
         <v>342</v>
       </c>
       <c r="C6" t="s">
-        <v>964</v>
+        <v>970</v>
       </c>
       <c r="D6" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
       <c r="E6" t="s">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="F6" t="s">
-        <v>1026</v>
+        <v>1032</v>
       </c>
       <c r="G6" t="s">
-        <v>1051</v>
+        <v>1057</v>
       </c>
       <c r="H6" t="s">
-        <v>1066</v>
+        <v>1072</v>
       </c>
       <c r="I6" t="s">
-        <v>1093</v>
+        <v>1099</v>
       </c>
       <c r="J6" t="s">
-        <v>1113</v>
+        <v>1119</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -8720,22 +8770,22 @@
         <v>333</v>
       </c>
       <c r="D7" t="s">
-        <v>976</v>
+        <v>982</v>
       </c>
       <c r="E7" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="F7" t="s">
-        <v>1027</v>
+        <v>1033</v>
       </c>
       <c r="H7" t="s">
-        <v>1067</v>
+        <v>1073</v>
       </c>
       <c r="I7" t="s">
-        <v>1094</v>
+        <v>1100</v>
       </c>
       <c r="J7" t="s">
-        <v>1114</v>
+        <v>1120</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -8746,25 +8796,25 @@
         <v>21330051920117</v>
       </c>
       <c r="B8" t="s">
-        <v>956</v>
+        <v>962</v>
       </c>
       <c r="C8" t="s">
-        <v>965</v>
+        <v>971</v>
       </c>
       <c r="D8" t="s">
-        <v>977</v>
+        <v>983</v>
       </c>
       <c r="E8" t="s">
-        <v>1002</v>
+        <v>1008</v>
       </c>
       <c r="G8" t="s">
-        <v>1052</v>
+        <v>1058</v>
       </c>
       <c r="H8" t="s">
-        <v>1068</v>
+        <v>1074</v>
       </c>
       <c r="J8" t="s">
-        <v>1115</v>
+        <v>1121</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -8781,22 +8831,22 @@
         <v>345</v>
       </c>
       <c r="D9" t="s">
-        <v>973</v>
+        <v>979</v>
       </c>
       <c r="E9" t="s">
-        <v>1003</v>
+        <v>1009</v>
       </c>
       <c r="F9" t="s">
-        <v>1028</v>
+        <v>1034</v>
       </c>
       <c r="G9" t="s">
-        <v>1053</v>
+        <v>1059</v>
       </c>
       <c r="H9" t="s">
-        <v>1069</v>
+        <v>1075</v>
       </c>
       <c r="J9" t="s">
-        <v>1053</v>
+        <v>1059</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -8813,22 +8863,22 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="E10" t="s">
-        <v>1004</v>
+        <v>1010</v>
       </c>
       <c r="F10" t="s">
-        <v>1029</v>
+        <v>1035</v>
       </c>
       <c r="H10" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="I10" t="s">
-        <v>1095</v>
+        <v>1101</v>
       </c>
       <c r="J10" t="s">
-        <v>1116</v>
+        <v>1122</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -8845,22 +8895,22 @@
         <v>577</v>
       </c>
       <c r="D11" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="E11" t="s">
-        <v>1005</v>
+        <v>1011</v>
       </c>
       <c r="F11" t="s">
-        <v>1030</v>
+        <v>1036</v>
       </c>
       <c r="G11" t="s">
-        <v>1054</v>
+        <v>1060</v>
       </c>
       <c r="H11" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="J11" t="s">
-        <v>1117</v>
+        <v>1123</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -8877,25 +8927,25 @@
         <v>578</v>
       </c>
       <c r="D12" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="E12" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="F12" t="s">
-        <v>1031</v>
+        <v>1037</v>
       </c>
       <c r="G12" t="s">
-        <v>1055</v>
+        <v>1061</v>
       </c>
       <c r="H12" t="s">
-        <v>1072</v>
+        <v>1078</v>
       </c>
       <c r="I12" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="J12" t="s">
-        <v>1118</v>
+        <v>1124</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -8909,25 +8959,25 @@
         <v>319</v>
       </c>
       <c r="C13" t="s">
-        <v>966</v>
+        <v>972</v>
       </c>
       <c r="D13" t="s">
-        <v>981</v>
+        <v>987</v>
       </c>
       <c r="E13" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="F13" t="s">
-        <v>1032</v>
+        <v>1038</v>
       </c>
       <c r="H13" t="s">
-        <v>1073</v>
+        <v>1079</v>
       </c>
       <c r="I13" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="J13" t="s">
-        <v>1119</v>
+        <v>1125</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -8944,25 +8994,25 @@
         <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="E14" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="F14" t="s">
-        <v>1033</v>
+        <v>1039</v>
       </c>
       <c r="G14" t="s">
-        <v>1033</v>
+        <v>1039</v>
       </c>
       <c r="H14" t="s">
-        <v>1074</v>
+        <v>1080</v>
       </c>
       <c r="I14" t="s">
-        <v>1097</v>
+        <v>1103</v>
       </c>
       <c r="J14" t="s">
-        <v>1033</v>
+        <v>1039</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -8973,31 +9023,31 @@
         <v>21330051920123</v>
       </c>
       <c r="B15" t="s">
-        <v>957</v>
+        <v>963</v>
       </c>
       <c r="C15" t="s">
-        <v>967</v>
+        <v>973</v>
       </c>
       <c r="D15" t="s">
-        <v>983</v>
+        <v>989</v>
       </c>
       <c r="E15" t="s">
         <v>531</v>
       </c>
       <c r="F15" t="s">
-        <v>1034</v>
+        <v>1040</v>
       </c>
       <c r="G15" t="s">
-        <v>1034</v>
+        <v>1040</v>
       </c>
       <c r="H15" t="s">
-        <v>1075</v>
+        <v>1081</v>
       </c>
       <c r="I15" t="s">
-        <v>1098</v>
+        <v>1104</v>
       </c>
       <c r="J15" t="s">
-        <v>1120</v>
+        <v>1126</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -9008,31 +9058,31 @@
         <v>21330051920124</v>
       </c>
       <c r="B16" t="s">
-        <v>958</v>
+        <v>964</v>
       </c>
       <c r="C16" t="s">
-        <v>968</v>
+        <v>974</v>
       </c>
       <c r="D16" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="E16" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="F16" t="s">
-        <v>1035</v>
+        <v>1041</v>
       </c>
       <c r="G16" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="H16" t="s">
-        <v>1076</v>
+        <v>1082</v>
       </c>
       <c r="I16" t="s">
-        <v>1099</v>
+        <v>1105</v>
       </c>
       <c r="J16" t="s">
-        <v>1121</v>
+        <v>1127</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -9049,25 +9099,25 @@
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>985</v>
+        <v>991</v>
       </c>
       <c r="E17" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="F17" t="s">
-        <v>1036</v>
+        <v>1042</v>
       </c>
       <c r="G17" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="H17" t="s">
-        <v>1077</v>
+        <v>1083</v>
       </c>
       <c r="I17" t="s">
-        <v>1100</v>
+        <v>1106</v>
       </c>
       <c r="J17" t="s">
-        <v>1036</v>
+        <v>1042</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -9078,31 +9128,31 @@
         <v>21330051920126</v>
       </c>
       <c r="B18" t="s">
-        <v>959</v>
+        <v>965</v>
       </c>
       <c r="C18" t="s">
         <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>986</v>
+        <v>992</v>
       </c>
       <c r="E18" t="s">
-        <v>1011</v>
+        <v>1017</v>
       </c>
       <c r="F18" t="s">
-        <v>1037</v>
+        <v>1043</v>
       </c>
       <c r="G18" t="s">
-        <v>1058</v>
+        <v>1064</v>
       </c>
       <c r="H18" t="s">
-        <v>1078</v>
+        <v>1084</v>
       </c>
       <c r="I18" t="s">
-        <v>1011</v>
+        <v>1017</v>
       </c>
       <c r="J18" t="s">
-        <v>1058</v>
+        <v>1064</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -9113,31 +9163,31 @@
         <v>21330051920127</v>
       </c>
       <c r="B19" t="s">
-        <v>960</v>
+        <v>966</v>
       </c>
       <c r="C19" t="s">
         <v>596</v>
       </c>
       <c r="D19" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E19" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
       <c r="F19" t="s">
-        <v>1038</v>
+        <v>1044</v>
       </c>
       <c r="G19" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="H19" t="s">
-        <v>1079</v>
+        <v>1085</v>
       </c>
       <c r="I19" t="s">
-        <v>1101</v>
+        <v>1107</v>
       </c>
       <c r="J19" t="s">
-        <v>1122</v>
+        <v>1128</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -9148,28 +9198,28 @@
         <v>20330051920275</v>
       </c>
       <c r="B20" t="s">
-        <v>961</v>
+        <v>967</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>988</v>
+        <v>994</v>
       </c>
       <c r="E20" t="s">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="F20" t="s">
-        <v>1039</v>
+        <v>1045</v>
       </c>
       <c r="H20" t="s">
-        <v>1080</v>
+        <v>1086</v>
       </c>
       <c r="I20" t="s">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="J20" t="s">
-        <v>1039</v>
+        <v>1045</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -9180,31 +9230,31 @@
         <v>21330051920128</v>
       </c>
       <c r="B21" t="s">
-        <v>962</v>
+        <v>968</v>
       </c>
       <c r="C21" t="s">
         <v>597</v>
       </c>
       <c r="D21" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="E21" t="s">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="F21" t="s">
-        <v>1040</v>
+        <v>1046</v>
       </c>
       <c r="G21" t="s">
-        <v>1060</v>
+        <v>1066</v>
       </c>
       <c r="H21" t="s">
-        <v>1081</v>
+        <v>1087</v>
       </c>
       <c r="I21" t="s">
-        <v>1102</v>
+        <v>1108</v>
       </c>
       <c r="J21" t="s">
-        <v>1040</v>
+        <v>1046</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -9215,28 +9265,28 @@
         <v>21330051920129</v>
       </c>
       <c r="C22" t="s">
-        <v>969</v>
+        <v>975</v>
       </c>
       <c r="D22" t="s">
-        <v>990</v>
+        <v>996</v>
       </c>
       <c r="E22" t="s">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="F22" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="G22" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="H22" t="s">
-        <v>1082</v>
+        <v>1088</v>
       </c>
       <c r="I22" t="s">
-        <v>1103</v>
+        <v>1109</v>
       </c>
       <c r="J22" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -9247,28 +9297,28 @@
         <v>21330051920130</v>
       </c>
       <c r="B23" t="s">
-        <v>963</v>
+        <v>969</v>
       </c>
       <c r="C23" t="s">
-        <v>970</v>
+        <v>976</v>
       </c>
       <c r="D23" t="s">
-        <v>991</v>
+        <v>997</v>
       </c>
       <c r="E23" t="s">
-        <v>1016</v>
+        <v>1022</v>
       </c>
       <c r="F23" t="s">
-        <v>1042</v>
+        <v>1048</v>
       </c>
       <c r="H23" t="s">
-        <v>1083</v>
+        <v>1089</v>
       </c>
       <c r="I23" t="s">
-        <v>1016</v>
+        <v>1022</v>
       </c>
       <c r="J23" t="s">
-        <v>1123</v>
+        <v>1129</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -9288,22 +9338,22 @@
         <v>620</v>
       </c>
       <c r="E24" t="s">
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="F24" t="s">
-        <v>1043</v>
+        <v>1049</v>
       </c>
       <c r="G24" t="s">
-        <v>1061</v>
+        <v>1067</v>
       </c>
       <c r="H24" t="s">
-        <v>1084</v>
+        <v>1090</v>
       </c>
       <c r="I24" t="s">
-        <v>1104</v>
+        <v>1110</v>
       </c>
       <c r="J24" t="s">
-        <v>1124</v>
+        <v>1130</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -9314,31 +9364,31 @@
         <v>18330051920377</v>
       </c>
       <c r="B25" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="C25" t="s">
-        <v>971</v>
+        <v>977</v>
       </c>
       <c r="D25" t="s">
         <v>102</v>
       </c>
       <c r="E25" t="s">
-        <v>1018</v>
+        <v>1024</v>
       </c>
       <c r="F25" t="s">
-        <v>1044</v>
+        <v>1050</v>
       </c>
       <c r="G25" t="s">
-        <v>1044</v>
+        <v>1050</v>
       </c>
       <c r="H25" t="s">
-        <v>1085</v>
+        <v>1091</v>
       </c>
       <c r="I25" t="s">
-        <v>1105</v>
+        <v>1111</v>
       </c>
       <c r="J25" t="s">
-        <v>1125</v>
+        <v>1131</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -9352,25 +9402,25 @@
         <v>594</v>
       </c>
       <c r="C26" t="s">
-        <v>972</v>
+        <v>978</v>
       </c>
       <c r="D26" t="s">
-        <v>992</v>
+        <v>998</v>
       </c>
       <c r="E26" t="s">
         <v>146</v>
       </c>
       <c r="F26" t="s">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="H26" t="s">
-        <v>1086</v>
+        <v>1092</v>
       </c>
       <c r="I26" t="s">
-        <v>1106</v>
+        <v>1112</v>
       </c>
       <c r="J26" t="s">
-        <v>1126</v>
+        <v>1132</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -9387,22 +9437,22 @@
         <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="E27" t="s">
-        <v>1019</v>
+        <v>1025</v>
       </c>
       <c r="F27" t="s">
-        <v>1046</v>
+        <v>1052</v>
       </c>
       <c r="H27" t="s">
-        <v>1087</v>
+        <v>1093</v>
       </c>
       <c r="I27" t="s">
-        <v>1107</v>
+        <v>1113</v>
       </c>
       <c r="J27" t="s">
-        <v>1127</v>
+        <v>1133</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -9416,28 +9466,28 @@
         <v>599</v>
       </c>
       <c r="C28" t="s">
-        <v>961</v>
+        <v>967</v>
       </c>
       <c r="D28" t="s">
-        <v>994</v>
+        <v>1000</v>
       </c>
       <c r="E28" t="s">
-        <v>1020</v>
+        <v>1026</v>
       </c>
       <c r="F28" t="s">
-        <v>1047</v>
+        <v>1053</v>
       </c>
       <c r="G28" t="s">
-        <v>1047</v>
+        <v>1053</v>
       </c>
       <c r="H28" t="s">
-        <v>1088</v>
+        <v>1094</v>
       </c>
       <c r="I28" t="s">
-        <v>1108</v>
+        <v>1114</v>
       </c>
       <c r="J28" t="s">
-        <v>1128</v>
+        <v>1134</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -9454,22 +9504,22 @@
         <v>346</v>
       </c>
       <c r="D29" t="s">
-        <v>995</v>
+        <v>1001</v>
       </c>
       <c r="E29" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="F29" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="H29" t="s">
-        <v>1089</v>
+        <v>1095</v>
       </c>
       <c r="I29" t="s">
-        <v>1109</v>
+        <v>1115</v>
       </c>
       <c r="J29" t="s">
-        <v>1129</v>
+        <v>1135</v>
       </c>
       <c r="K29">
         <v>1</v>

--- a/Contreras Díaz Irma Ivette 20212.xlsx
+++ b/Contreras Díaz Irma Ivette 20212.xlsx
@@ -4759,7 +4759,7 @@
         <v>206</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -7162,6 +7162,9 @@
       <c r="J20" t="s">
         <v>817</v>
       </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
@@ -7757,7 +7760,7 @@
         <v>830</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:11">
